--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H2">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I2">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J2">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>186.4087424703285</v>
+        <v>828.7947621661183</v>
       </c>
       <c r="R2">
-        <v>186.4087424703285</v>
+        <v>7459.152859495064</v>
       </c>
       <c r="S2">
-        <v>0.002068973507465967</v>
+        <v>0.006182166743132322</v>
       </c>
       <c r="T2">
-        <v>0.002068973507465967</v>
+        <v>0.007245310512111865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H3">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I3">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J3">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>208.7716404835662</v>
+        <v>886.9297728144232</v>
       </c>
       <c r="R3">
-        <v>208.7716404835662</v>
+        <v>7982.367955329809</v>
       </c>
       <c r="S3">
-        <v>0.002317182056734609</v>
+        <v>0.00661580887728659</v>
       </c>
       <c r="T3">
-        <v>0.002317182056734609</v>
+        <v>0.007753525842371729</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H4">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I4">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J4">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>107.4073638405837</v>
+        <v>445.3564142012875</v>
       </c>
       <c r="R4">
-        <v>107.4073638405837</v>
+        <v>4008.207727811588</v>
       </c>
       <c r="S4">
-        <v>0.001192127511553263</v>
+        <v>0.003322013770357318</v>
       </c>
       <c r="T4">
-        <v>0.001192127511553263</v>
+        <v>0.003893298626810441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H5">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I5">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J5">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>127.7845598099073</v>
+        <v>508.8226315685622</v>
       </c>
       <c r="R5">
-        <v>127.7845598099073</v>
+        <v>4579.403684117059</v>
       </c>
       <c r="S5">
-        <v>0.001418296510164922</v>
+        <v>0.003795422575807431</v>
       </c>
       <c r="T5">
-        <v>0.001418296510164922</v>
+        <v>0.004448119280663615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H6">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I6">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J6">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>252.1501403945802</v>
+        <v>1014.900113662222</v>
       </c>
       <c r="R6">
-        <v>252.1501403945802</v>
+        <v>6089.400681973329</v>
       </c>
       <c r="S6">
-        <v>0.002798645350355554</v>
+        <v>0.007570368463581364</v>
       </c>
       <c r="T6">
-        <v>0.002798645350355554</v>
+        <v>0.00591482700577732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H7">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I7">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J7">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>17122.61177870587</v>
+        <v>23833.50504929131</v>
       </c>
       <c r="R7">
-        <v>17122.61177870587</v>
+        <v>214501.5454436218</v>
       </c>
       <c r="S7">
-        <v>0.1900459692999974</v>
+        <v>0.1777794805349803</v>
       </c>
       <c r="T7">
-        <v>0.1900459692999974</v>
+        <v>0.2083521187112551</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H8">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I8">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J8">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>19176.76018319077</v>
+        <v>25505.28331464341</v>
       </c>
       <c r="R8">
-        <v>19176.76018319077</v>
+        <v>229547.5498317907</v>
       </c>
       <c r="S8">
-        <v>0.2128452145122182</v>
+        <v>0.1902496510352611</v>
       </c>
       <c r="T8">
-        <v>0.2128452145122182</v>
+        <v>0.2229667774818036</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H9">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I9">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J9">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>9865.924574375913</v>
+        <v>12807.03598905368</v>
       </c>
       <c r="R9">
-        <v>9865.924574375913</v>
+        <v>115263.3239014831</v>
       </c>
       <c r="S9">
-        <v>0.1095031075288238</v>
+        <v>0.09553056508549343</v>
       </c>
       <c r="T9">
-        <v>0.1095031075288238</v>
+        <v>0.1119589031160976</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H10">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I10">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J10">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>11737.67592625725</v>
+        <v>14632.12282735488</v>
       </c>
       <c r="R10">
-        <v>11737.67592625725</v>
+        <v>131689.1054461939</v>
       </c>
       <c r="S10">
-        <v>0.1302779054716968</v>
+        <v>0.1091442987504906</v>
       </c>
       <c r="T10">
-        <v>0.1302779054716968</v>
+        <v>0.1279137829713956</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H11">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I11">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J11">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>23161.30084193776</v>
+        <v>29185.30387459986</v>
       </c>
       <c r="R11">
-        <v>23161.30084193776</v>
+        <v>175111.8232475992</v>
       </c>
       <c r="S11">
-        <v>0.2570701202388407</v>
+        <v>0.217699752988543</v>
       </c>
       <c r="T11">
-        <v>0.2570701202388407</v>
+        <v>0.1700916387785074</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>13.9123071549377</v>
+        <v>0.08681966666666667</v>
       </c>
       <c r="H12">
-        <v>13.9123071549377</v>
+        <v>0.260459</v>
       </c>
       <c r="I12">
-        <v>0.09046245801214881</v>
+        <v>0.0003979671306811982</v>
       </c>
       <c r="J12">
-        <v>0.09046245801214881</v>
+        <v>0.0004235848707133055</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>1721.552404209873</v>
+        <v>12.00013491561156</v>
       </c>
       <c r="R12">
-        <v>1721.552404209873</v>
+        <v>108.001214240504</v>
       </c>
       <c r="S12">
-        <v>0.01910772139129432</v>
+        <v>8.951170829615502E-05</v>
       </c>
       <c r="T12">
-        <v>0.01910772139129432</v>
+        <v>0.0001049049868795073</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>13.9123071549377</v>
+        <v>0.08681966666666667</v>
       </c>
       <c r="H13">
-        <v>13.9123071549377</v>
+        <v>0.260459</v>
       </c>
       <c r="I13">
-        <v>0.09046245801214881</v>
+        <v>0.0003979671306811982</v>
       </c>
       <c r="J13">
-        <v>0.09046245801214881</v>
+        <v>0.0004235848707133055</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>1928.08188522881</v>
+        <v>12.84187282582333</v>
       </c>
       <c r="R13">
-        <v>1928.08188522881</v>
+        <v>115.57685543241</v>
       </c>
       <c r="S13">
-        <v>0.02140001744498876</v>
+        <v>9.579042089485016E-05</v>
       </c>
       <c r="T13">
-        <v>0.02140001744498876</v>
+        <v>0.0001122634461841501</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>13.9123071549377</v>
+        <v>0.08681966666666667</v>
       </c>
       <c r="H14">
-        <v>13.9123071549377</v>
+        <v>0.260459</v>
       </c>
       <c r="I14">
-        <v>0.09046245801214881</v>
+        <v>0.0003979671306811982</v>
       </c>
       <c r="J14">
-        <v>0.09046245801214881</v>
+        <v>0.0004235848707133055</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>991.9459945878557</v>
+        <v>6.448323879340888</v>
       </c>
       <c r="R14">
-        <v>991.9459945878557</v>
+        <v>58.034914914068</v>
       </c>
       <c r="S14">
-        <v>0.01100973031866211</v>
+        <v>4.809949972610594E-05</v>
       </c>
       <c r="T14">
-        <v>0.01100973031866211</v>
+        <v>5.637114388414319E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>13.9123071549377</v>
+        <v>0.08681966666666667</v>
       </c>
       <c r="H15">
-        <v>13.9123071549377</v>
+        <v>0.260459</v>
       </c>
       <c r="I15">
-        <v>0.09046245801214881</v>
+        <v>0.0003979671306811982</v>
       </c>
       <c r="J15">
-        <v>0.09046245801214881</v>
+        <v>0.0004235848707133055</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>1180.136796409442</v>
+        <v>7.36725243168878</v>
       </c>
       <c r="R15">
-        <v>1180.136796409442</v>
+        <v>66.30527188519901</v>
       </c>
       <c r="S15">
-        <v>0.01309848312154966</v>
+        <v>5.495399470480514E-05</v>
       </c>
       <c r="T15">
-        <v>0.01309848312154966</v>
+        <v>6.440440254374779E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.08681966666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.260459</v>
+      </c>
+      <c r="I16">
+        <v>0.0003979671306811982</v>
+      </c>
+      <c r="J16">
+        <v>0.0004235848707133055</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>169.2560955</v>
+      </c>
+      <c r="N16">
+        <v>338.512191</v>
+      </c>
+      <c r="O16">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P16">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q16">
+        <v>14.6947577926115</v>
+      </c>
+      <c r="R16">
+        <v>88.16854675566901</v>
+      </c>
+      <c r="S16">
+        <v>0.0001096115070592819</v>
+      </c>
+      <c r="T16">
+        <v>8.564089122175706E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.181466</v>
+      </c>
+      <c r="I17">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J17">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N17">
+        <v>414.657256</v>
+      </c>
+      <c r="O17">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P17">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q17">
+        <v>8.360688179699556</v>
+      </c>
+      <c r="R17">
+        <v>75.246193617296</v>
+      </c>
+      <c r="S17">
+        <v>6.23642556320575E-05</v>
+      </c>
+      <c r="T17">
+        <v>7.308900191230357E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.181466</v>
+      </c>
+      <c r="I18">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J18">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>147.91433</v>
+      </c>
+      <c r="N18">
+        <v>443.74299</v>
+      </c>
+      <c r="O18">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P18">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q18">
+        <v>8.947140602593331</v>
+      </c>
+      <c r="R18">
+        <v>80.52426542333998</v>
+      </c>
+      <c r="S18">
+        <v>6.67387363005497E-05</v>
+      </c>
+      <c r="T18">
+        <v>7.82157595830936E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.181466</v>
+      </c>
+      <c r="I19">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J19">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N19">
+        <v>222.817852</v>
+      </c>
+      <c r="O19">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P19">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q19">
+        <v>4.492651592336888</v>
+      </c>
+      <c r="R19">
+        <v>40.433864331032</v>
+      </c>
+      <c r="S19">
+        <v>3.351169979650363E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.927468813164425E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.181466</v>
+      </c>
+      <c r="I20">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J20">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N20">
+        <v>254.570861</v>
+      </c>
+      <c r="O20">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P20">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q20">
+        <v>5.132883984691778</v>
+      </c>
+      <c r="R20">
+        <v>46.195955862226</v>
+      </c>
+      <c r="S20">
+        <v>3.828733736635005E-05</v>
+      </c>
+      <c r="T20">
+        <v>4.487158943251621E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.181466</v>
+      </c>
+      <c r="I21">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J21">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>169.2560955</v>
+      </c>
+      <c r="N21">
+        <v>338.512191</v>
+      </c>
+      <c r="O21">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P21">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q21">
+        <v>10.238075542001</v>
+      </c>
+      <c r="R21">
+        <v>61.428453252006</v>
+      </c>
+      <c r="S21">
+        <v>7.636811068160305E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.966739473946905E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>39.5815265</v>
+      </c>
+      <c r="H22">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I22">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J22">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N22">
+        <v>414.657256</v>
+      </c>
+      <c r="O22">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P22">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q22">
+        <v>5470.922388927094</v>
+      </c>
+      <c r="R22">
+        <v>32825.53433356257</v>
+      </c>
+      <c r="S22">
+        <v>0.04080884193655657</v>
+      </c>
+      <c r="T22">
+        <v>0.03188447715881095</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>39.5815265</v>
+      </c>
+      <c r="H23">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I23">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J23">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.91433</v>
+      </c>
+      <c r="N23">
+        <v>443.74299</v>
+      </c>
+      <c r="O23">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P23">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q23">
+        <v>5854.674972624744</v>
+      </c>
+      <c r="R23">
+        <v>35128.04983574846</v>
+      </c>
+      <c r="S23">
+        <v>0.04367133886441626</v>
+      </c>
+      <c r="T23">
+        <v>0.03412098311150131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>13.9123071549377</v>
-      </c>
-      <c r="H16">
-        <v>13.9123071549377</v>
-      </c>
-      <c r="I16">
-        <v>0.09046245801214881</v>
-      </c>
-      <c r="J16">
-        <v>0.09046245801214881</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="N16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="O16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="P16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="Q16">
-        <v>2328.698078563792</v>
-      </c>
-      <c r="R16">
-        <v>2328.698078563792</v>
-      </c>
-      <c r="S16">
-        <v>0.02584650573565396</v>
-      </c>
-      <c r="T16">
-        <v>0.02584650573565396</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>39.5815265</v>
+      </c>
+      <c r="H24">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I24">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J24">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N24">
+        <v>222.817852</v>
+      </c>
+      <c r="O24">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P24">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q24">
+        <v>2939.823571203692</v>
+      </c>
+      <c r="R24">
+        <v>17638.94142722215</v>
+      </c>
+      <c r="S24">
+        <v>0.02192880595079001</v>
+      </c>
+      <c r="T24">
+        <v>0.01713326032493042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>39.5815265</v>
+      </c>
+      <c r="H25">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J25">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N25">
+        <v>254.570861</v>
+      </c>
+      <c r="O25">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P25">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q25">
+        <v>3358.767760266439</v>
+      </c>
+      <c r="R25">
+        <v>20152.60656159863</v>
+      </c>
+      <c r="S25">
+        <v>0.02505380498683982</v>
+      </c>
+      <c r="T25">
+        <v>0.01957486257723496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>39.5815265</v>
+      </c>
+      <c r="H26">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J26">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>169.2560955</v>
+      </c>
+      <c r="N26">
+        <v>338.512191</v>
+      </c>
+      <c r="O26">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P26">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q26">
+        <v>6699.414629319781</v>
+      </c>
+      <c r="R26">
+        <v>26797.65851727912</v>
+      </c>
+      <c r="S26">
+        <v>0.04997244216600583</v>
+      </c>
+      <c r="T26">
+        <v>0.02602941119621587</v>
       </c>
     </row>
   </sheetData>
